--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value593.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value593.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.408606696589808</v>
+        <v>1.072918772697449</v>
       </c>
       <c r="B1">
-        <v>1.477569173437295</v>
+        <v>1.712220191955566</v>
       </c>
       <c r="C1">
-        <v>1.454267911549263</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.805155073888672</v>
+        <v>1.866223335266113</v>
       </c>
       <c r="E1">
-        <v>2.665534258876225</v>
+        <v>1.157050013542175</v>
       </c>
     </row>
   </sheetData>
